--- a/uploads/excel/binex.xlsx
+++ b/uploads/excel/binex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ecomas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29781A39-337C-4046-9EFE-30D3F071FC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9547458-8DEF-438E-BBBE-A30CC6ECD57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="630" windowWidth="19410" windowHeight="11385" xr2:uid="{827D14C9-8737-459B-9198-5A3C62988CF4}"/>
+    <workbookView xWindow="8925" yWindow="3870" windowWidth="19410" windowHeight="11385" xr2:uid="{827D14C9-8737-459B-9198-5A3C62988CF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
   <si>
-    <t>75186633</t>
-  </si>
-  <si>
     <t>Yadi Yhesenia Gamarra Alvarez</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>10-12-2023</t>
   </si>
   <si>
-    <t xml:space="preserve"> 45549705</t>
-  </si>
-  <si>
     <t>Valentin Lucero Rinza</t>
   </si>
   <si>
@@ -79,6 +73,12 @@
   </si>
   <si>
     <t xml:space="preserve">Jose Carlos Risco Mendoza </t>
+  </si>
+  <si>
+    <t>75186578</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45549774</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,132 +469,132 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2">
+        <v>235234554</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
-        <v>732358801</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" s="5">
         <v>100</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>768678962</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2">
-        <v>132358802</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="5">
         <v>100</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>17635834</v>
+        <v>17635824</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>330358803</v>
+        <v>622473603</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="5">
         <v>100</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>73273801</v>
+        <v>73273325</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>732358804</v>
+        <v>365545545</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="5">
         <v>100</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>23271450</v>
+        <v>23271497</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>832358805</v>
+        <v>811528605</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="5">
         <v>100</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -602,51 +602,51 @@
         <v>74302934</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>232358807</v>
+        <v>235864407</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="5">
         <v>100</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
-        <v>632358808</v>
+        <v>345445518</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="5">
         <v>100</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -654,25 +654,25 @@
         <v>46421907</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2">
-        <v>532358901</v>
+        <v>354554454</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" s="5">
         <v>100</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -680,25 +680,25 @@
         <v>80504750</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
-        <v>632358902</v>
+        <v>541132112</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="5">
         <v>100</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -706,25 +706,25 @@
         <v>80504750</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2">
-        <v>832358102</v>
+        <v>523211202</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" s="5">
         <v>100</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
